--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/20/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/20/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3373373373373373</v>
+        <v>0.1442144214421442</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1295.295295295295</v>
+        <v>698.5598559855986</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02532532532532532</v>
+        <v>0.06682668266826683</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02002002002002002</v>
+        <v>0.9266926692669267</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>708.7087087087087</v>
+        <v>1177.217721772177</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>285.2852852852853</v>
+        <v>267.1467146714672</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>239.2392392392393</v>
+        <v>796.1836183618361</v>
       </c>
     </row>
   </sheetData>
